--- a/src/main/resources/ScreensInformation.xlsx
+++ b/src/main/resources/ScreensInformation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -47,332 +47,749 @@
     <t>UserName</t>
   </si>
   <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>//*[@id="loginFrm"]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="js-login-btn"]</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>Medical_Aid</t>
+  </si>
+  <si>
+    <t>Manage_Your_Health_Plan</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-medical-aid-manage-your-health-plan']</t>
+  </si>
+  <si>
+    <t>Your_Health_Plan</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Your Health Plan')]</t>
+  </si>
+  <si>
+    <t>Discovery_HomePage_Title</t>
+  </si>
+  <si>
+    <t>pageTitle</t>
+  </si>
+  <si>
+    <t>DiscoveryWebSite</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://testbankmedwww.discsrv.co.za/portal/individual/doctor-visits</t>
+  </si>
+  <si>
+    <t>https://newtestwww.discsrv.co.za/portal/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankMedWebSite </t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-medical-aidd']</t>
+  </si>
+  <si>
+    <t>Product Portfolio - Discovery</t>
+  </si>
+  <si>
+    <t>Manage_your_Health_Plan</t>
+  </si>
+  <si>
+    <t>Manage your health plan</t>
+  </si>
+  <si>
+    <t>MY_DETAILS</t>
+  </si>
+  <si>
+    <t>topnav-my-details</t>
+  </si>
+  <si>
+    <t>Give_Dependant_Access</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-details-give-user-access']</t>
+  </si>
+  <si>
+    <t>Personal_Information</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-details-personal-details']</t>
+  </si>
+  <si>
+    <t>View_Dependants</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-details-view-dependants']</t>
+  </si>
+  <si>
+    <t>Manage_Consent</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-details-manage-consent']</t>
+  </si>
+  <si>
+    <t>Website_preferences</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-details-website-preferences']</t>
+  </si>
+  <si>
+    <t>MY_PLANS_AND_BENEFITS</t>
+  </si>
+  <si>
+    <t>topnav-my-plan-and-benefits</t>
+  </si>
+  <si>
+    <t>Plan_Details</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-plan-and-benefits-plan-details']</t>
+  </si>
+  <si>
+    <t>Benefit_Guide</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-plan-and-benefits-benefit-guide']</t>
+  </si>
+  <si>
+    <t>Benefit_Used</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-plan-and-benefits-benefits-used']</t>
+  </si>
+  <si>
+    <t>Interaction_Timeline</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-plan-and-benefits-interaction-timeline']</t>
+  </si>
+  <si>
+    <t>Chronic_Cover</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-plan-and-benefits-chronic-cover']</t>
+  </si>
+  <si>
+    <t>Search_for_a_provider</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-plan-and-benefits-maps']</t>
+  </si>
+  <si>
+    <t>MY_CLAIMS</t>
+  </si>
+  <si>
+    <t>topnav-my-claims</t>
+  </si>
+  <si>
+    <t>Submit_a_Claim</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-claims-submit-claim']</t>
+  </si>
+  <si>
+    <t>Get_a_claims_statement</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-claims-claims-statement']</t>
+  </si>
+  <si>
+    <t>Search_for_a_claim</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-claims-claim-search']</t>
+  </si>
+  <si>
+    <t>Claims_Transaction_History</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-claims-claims-transaction-history']</t>
+  </si>
+  <si>
+    <t>View_hospital_claims</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-claims-hospital-claims']</t>
+  </si>
+  <si>
+    <t>FIND_A_DOCUMENT</t>
+  </si>
+  <si>
+    <t>topnav-find-a-document</t>
+  </si>
+  <si>
+    <t>Application_forms</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-find-a-document-application-forms']</t>
+  </si>
+  <si>
+    <t>Membership_certificate</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-find-a-document-membership-certificate']</t>
+  </si>
+  <si>
+    <t>Tax_certificate</t>
+  </si>
+  <si>
+    <t>New_card_order_form</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-find-a-document-order-new-card']</t>
+  </si>
+  <si>
+    <t>Communication_archive</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-find-a-document-communication-archive']</t>
+  </si>
+  <si>
+    <t>MY_PROCEDURES_AND_ADMISSIONS</t>
+  </si>
+  <si>
+    <t>topnav-procedures-and-admissions</t>
+  </si>
+  <si>
+    <t>Obtain_an_authorisation</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-procedures-and-admissions-obtain-authorisation ']</t>
+  </si>
+  <si>
+    <t>Procedure_information_library</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-procedures-and-admissions-procedure-information-library']</t>
+  </si>
+  <si>
+    <t>Going_to_hospital</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-procedures-and-admissions-going-to-hospital']</t>
+  </si>
+  <si>
+    <t>MY_SAVINGS</t>
+  </si>
+  <si>
+    <t>topnav-my-savings</t>
+  </si>
+  <si>
+    <t>HealthCare_at_Clicks_and_Dis_chem</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-savings-healthcare']</t>
+  </si>
+  <si>
+    <t>Optometry</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-savings-optometry']</t>
+  </si>
+  <si>
+    <t>MY_SCHEME</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>topnav-my-scheme</t>
+  </si>
+  <si>
+    <t>Scheme_Rules</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-scheme-scheme-rules']</t>
+  </si>
+  <si>
+    <t>Annual_Financial_Statements</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-scheme-annual-financial-statements']</t>
+  </si>
+  <si>
+    <t>Annual_General_Meeting</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-scheme-annual-general-meeting']</t>
+  </si>
+  <si>
+    <t>Digital_benefits</t>
+  </si>
+  <si>
+    <t>//*[@id='topnav-sl-my-scheme-digital-benefits']</t>
+  </si>
+  <si>
+    <t>Home - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_HomePage_Title</t>
+  </si>
+  <si>
+    <t>LOGIN_Button</t>
+  </si>
+  <si>
+    <t>OTP_Submit_Button</t>
+  </si>
+  <si>
+    <t>//*[@id="otp-submit"]</t>
+  </si>
+  <si>
+    <t>OTP_Text_Box</t>
+  </si>
+  <si>
+    <t>//*[@id="otpValue"]</t>
+  </si>
+  <si>
+    <t>Malcor_OPEN_LOGIN_POPUP</t>
+  </si>
+  <si>
+    <t>//*[@id='js-login-dropdown']/a</t>
+  </si>
+  <si>
+    <t>Malcor_LOGIN_Button</t>
+  </si>
+  <si>
+    <t>//*[@id='loginFrm']/div[4]/div[2]/button</t>
+  </si>
+  <si>
+    <t>Malcor_YOUR_DETAILS</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Your details')]</t>
+  </si>
+  <si>
+    <t>Your health plan - Malcor Medical Scheme</t>
+  </si>
+  <si>
+    <t>Malcor_Home_Page</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Your health record')]</t>
+  </si>
+  <si>
+    <t>Malcor_Your_Health_Record</t>
+  </si>
+  <si>
+    <t>DropDown_grantingAccessTo</t>
+  </si>
+  <si>
+    <t>DropDown_grantingToView</t>
+  </si>
+  <si>
+    <t>DropDown_requestToView</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Iagree_grantTCSection</t>
+  </si>
+  <si>
+    <t>Grand_Submit</t>
+  </si>
+  <si>
+    <t>//*[@id="submitGrantConsent"]</t>
+  </si>
+  <si>
+    <t>//*[@id="submitRequestConsent"]</t>
+  </si>
+  <si>
+    <t>Request_Submit</t>
+  </si>
+  <si>
+    <t>https://testmalcor.discsrv.co.za/portal/</t>
+  </si>
+  <si>
+    <t>MalcorWebSite</t>
+  </si>
+  <si>
+    <t>https://testams-rd.discsrv.co.za/portal/index.jsp</t>
+  </si>
+  <si>
+    <t>Malcor_Your_Health_Records_Page</t>
+  </si>
+  <si>
+    <t>Health Records - Malcor Medical Scheme</t>
+  </si>
+  <si>
+    <t>Iagree_requestTCSection</t>
+  </si>
+  <si>
+    <t>grantingAccessTo</t>
+  </si>
+  <si>
+    <t>grantingToView</t>
+  </si>
+  <si>
+    <t>requestToView</t>
+  </si>
+  <si>
+    <t>//*[@id="bs-request-sm"]/div/div/div[3]/button</t>
+  </si>
+  <si>
+    <t>Malcor_PopUp_Close</t>
+  </si>
+  <si>
+    <t>Malcor_PopUp_Msg</t>
+  </si>
+  <si>
+    <t>//*[@id="bs-request-sm"]/div/div/div[2]/p</t>
+  </si>
+  <si>
     <t>OPEN_LOGIN_POPUP</t>
   </si>
   <si>
-    <t>enter</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>LOGIN_Button</t>
-  </si>
-  <si>
-    <t>//*[@id="loginFrm"]/button</t>
-  </si>
-  <si>
-    <t>//*[@id="js-login-btn"]</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>Medical_Aid</t>
-  </si>
-  <si>
-    <t>Manage_Your_Health_Plan</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-medical-aid-manage-your-health-plan']</t>
-  </si>
-  <si>
-    <t>Your_Health_Plan</t>
-  </si>
-  <si>
-    <t>verify</t>
-  </si>
-  <si>
-    <t>//*[contains(text(),'Your Health Plan')]</t>
-  </si>
-  <si>
-    <t>Discovery_HomePage_Title</t>
-  </si>
-  <si>
-    <t>pageTitle</t>
-  </si>
-  <si>
-    <t>DiscoveryWebSite</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>https://testbankmedwww.discsrv.co.za/portal/individual/doctor-visits</t>
-  </si>
-  <si>
-    <t>https://newtestwww.discsrv.co.za/portal/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankMedWebSite </t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-medical-aidd']</t>
-  </si>
-  <si>
-    <t>https://testams-rd.discsrv.co.za/portal/index.jsp</t>
+    <t>AMS_Your_personal_information</t>
+  </si>
+  <si>
+    <t>Name_ID_number_date_of_birth_gender</t>
+  </si>
+  <si>
+    <t>Personal_details</t>
+  </si>
+  <si>
+    <t>Personal Information - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>//*[@id="firstName"]</t>
   </si>
   <si>
     <t>AMSWebSite</t>
   </si>
   <si>
-    <t>Product Portfolio - Discovery</t>
-  </si>
-  <si>
-    <t>Manage_your_Health_Plan</t>
-  </si>
-  <si>
-    <t>Manage your health plan</t>
-  </si>
-  <si>
-    <t>MY_DETAILS</t>
-  </si>
-  <si>
-    <t>topnav-my-details</t>
-  </si>
-  <si>
-    <t>Give_Dependant_Access</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-details-give-user-access']</t>
-  </si>
-  <si>
-    <t>Personal_Information</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-details-personal-details']</t>
-  </si>
-  <si>
-    <t>View_Dependants</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-details-view-dependants']</t>
-  </si>
-  <si>
-    <t>Manage_Consent</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-details-manage-consent']</t>
-  </si>
-  <si>
-    <t>Website_preferences</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-details-website-preferences']</t>
-  </si>
-  <si>
-    <t>MY_PLANS_AND_BENEFITS</t>
-  </si>
-  <si>
-    <t>topnav-my-plan-and-benefits</t>
-  </si>
-  <si>
-    <t>Plan_Details</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-plan-and-benefits-plan-details']</t>
-  </si>
-  <si>
-    <t>Benefit_Guide</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-plan-and-benefits-benefit-guide']</t>
-  </si>
-  <si>
-    <t>Benefit_Used</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-plan-and-benefits-benefits-used']</t>
-  </si>
-  <si>
-    <t>Interaction_Timeline</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-plan-and-benefits-interaction-timeline']</t>
-  </si>
-  <si>
-    <t>Chronic_Cover</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-plan-and-benefits-chronic-cover']</t>
-  </si>
-  <si>
-    <t>Search_for_a_provider</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-plan-and-benefits-maps']</t>
-  </si>
-  <si>
-    <t>MY_CLAIMS</t>
-  </si>
-  <si>
-    <t>topnav-my-claims</t>
-  </si>
-  <si>
-    <t>Submit_a_Claim</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-claims-submit-claim']</t>
-  </si>
-  <si>
-    <t>Get_a_claims_statement</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-claims-claims-statement']</t>
-  </si>
-  <si>
-    <t>Search_for_a_claim</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-claims-claim-search']</t>
-  </si>
-  <si>
-    <t>Claims_Transaction_History</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-claims-claims-transaction-history']</t>
-  </si>
-  <si>
-    <t>View_hospital_claims</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-claims-hospital-claims']</t>
-  </si>
-  <si>
-    <t>FIND_A_DOCUMENT</t>
-  </si>
-  <si>
-    <t>topnav-find-a-document</t>
-  </si>
-  <si>
-    <t>Application_forms</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-find-a-document-application-forms']</t>
-  </si>
-  <si>
-    <t>Membership_certificate</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-find-a-document-membership-certificate']</t>
-  </si>
-  <si>
-    <t>Tax_certificate</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-find-a-document-tax-certificate']</t>
-  </si>
-  <si>
-    <t>New_card_order_form</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-find-a-document-order-new-card']</t>
-  </si>
-  <si>
-    <t>Communication_archive</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-find-a-document-communication-archive']</t>
-  </si>
-  <si>
-    <t>MY_PROCEDURES_AND_ADMISSIONS</t>
-  </si>
-  <si>
-    <t>topnav-procedures-and-admissions</t>
-  </si>
-  <si>
-    <t>Obtain_an_authorisation</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-procedures-and-admissions-obtain-authorisation ']</t>
-  </si>
-  <si>
-    <t>Procedure_information_library</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-procedures-and-admissions-procedure-information-library']</t>
-  </si>
-  <si>
-    <t>Going_to_hospital</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-procedures-and-admissions-going-to-hospital']</t>
-  </si>
-  <si>
-    <t>MY_SAVINGS</t>
-  </si>
-  <si>
-    <t>topnav-my-savings</t>
-  </si>
-  <si>
-    <t>HealthCare_at_Clicks_and_Dis_chem</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-savings-healthcare']</t>
-  </si>
-  <si>
-    <t>Optometry</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-savings-optometry']</t>
-  </si>
-  <si>
-    <t>MY_SCHEME</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>topnav-my-scheme</t>
-  </si>
-  <si>
-    <t>Scheme_Rules</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-scheme-scheme-rules']</t>
-  </si>
-  <si>
-    <t>Annual_Financial_Statements</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-scheme-annual-financial-statements']</t>
-  </si>
-  <si>
-    <t>Annual_General_Meeting</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-scheme-annual-general-meeting']</t>
-  </si>
-  <si>
-    <t>Digital_benefits</t>
-  </si>
-  <si>
-    <t>//*[@id='topnav-sl-my-scheme-digital-benefits']</t>
-  </si>
-  <si>
-    <t>Home - Anglo Medical Scheme</t>
-  </si>
-  <si>
-    <t>AMS_HomePage_Title</t>
+    <t>Contact_details</t>
+  </si>
+  <si>
+    <t>//*[@id="contactDetailsForm"]/fieldset/div[5]/div/div/div/button[2]</t>
+  </si>
+  <si>
+    <t>Contact_details_SubmitButton</t>
+  </si>
+  <si>
+    <t>Residential_Address</t>
+  </si>
+  <si>
+    <t>//*[@id="edit"]</t>
+  </si>
+  <si>
+    <t>//*[@id="submit"]</t>
+  </si>
+  <si>
+    <t>Work_Address</t>
+  </si>
+  <si>
+    <t>Banking_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@href='personalDetails.do?mod=me&amp;dimension=-1&amp;selectedTabItem=1'] </t>
+  </si>
+  <si>
+    <t>Common_Address_Edit</t>
+  </si>
+  <si>
+    <t>Select_your_address_country</t>
+  </si>
+  <si>
+    <t>Select_your_address_category</t>
+  </si>
+  <si>
+    <t>Street name</t>
+  </si>
+  <si>
+    <t>//*[@id="STREET_NAME"]</t>
+  </si>
+  <si>
+    <t>Suburb</t>
+  </si>
+  <si>
+    <t>//*[@id="SUBURB"]</t>
+  </si>
+  <si>
+    <t>//*[@id="CITY"]</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Common_Submit_button</t>
+  </si>
+  <si>
+    <t>Your_address_category_dropdown</t>
+  </si>
+  <si>
+    <t>Your_address_country_dropdown</t>
+  </si>
+  <si>
+    <t>dams-category-container</t>
+  </si>
+  <si>
+    <t>dams-country-container</t>
+  </si>
+  <si>
+    <t>dams-category-select</t>
+  </si>
+  <si>
+    <t>dams-country-select</t>
+  </si>
+  <si>
+    <t>//*[@id="REGION"]</t>
+  </si>
+  <si>
+    <t>Give_Dependant_Access_Title</t>
+  </si>
+  <si>
+    <t>Give dependant access - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-primary ladda-bind ladda-button enabled']</t>
+  </si>
+  <si>
+    <t>Details_SubmitButton</t>
+  </si>
+  <si>
+    <t>//a[starts-with(@href, "contactDetails.do?")]</t>
+  </si>
+  <si>
+    <t>//a[starts-with(@href, "residentialAddressDetails.do?")]</t>
+  </si>
+  <si>
+    <t>//a[starts-with(@href, "workDetails.do?")]</t>
+  </si>
+  <si>
+    <t>Postal_Address</t>
+  </si>
+  <si>
+    <t>//a[starts-with(@href, "postalAddressHealth.do?")]</t>
+  </si>
+  <si>
+    <t>AMS_Postal_details_page</t>
+  </si>
+  <si>
+    <t>//a[starts-with(@href, "bankDetailsHealth.do?")]</t>
+  </si>
+  <si>
+    <t>AMS_Banking_details_page</t>
+  </si>
+  <si>
+    <t>View Dependants - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_My_Dependants</t>
+  </si>
+  <si>
+    <t>AMS_Obtain_an_authorisation_Title</t>
+  </si>
+  <si>
+    <t>Obtain an authorisation - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Going_to_hospital_Title</t>
+  </si>
+  <si>
+    <t>Going to hospital - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>Membership certificate - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Membership_certificate_Title</t>
+  </si>
+  <si>
+    <t>AMS_New_card_order_form_Title</t>
+  </si>
+  <si>
+    <t>New card order form - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>Communication archive - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Communication_archive_Title</t>
+  </si>
+  <si>
+    <t>AMS_Submit_a_Claim_Title</t>
+  </si>
+  <si>
+    <t>Submit a Claim - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Get_a_claims_statement_Title</t>
+  </si>
+  <si>
+    <t>Get a claims statement - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>Search for a claim - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Search_for_a_claim_Title</t>
+  </si>
+  <si>
+    <t>AMS_Claims_Transaction_History_Title</t>
+  </si>
+  <si>
+    <t>Claims Transaction History - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_View_hospital_claims_Title</t>
+  </si>
+  <si>
+    <t>View hospital claims - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_HealthCare_at_Clicks_and_Dis_chem_Title</t>
+  </si>
+  <si>
+    <t>500 Error page - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>Optometry - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Optometry_Title</t>
+  </si>
+  <si>
+    <t>//*[@id="requestTCSection"]/label/div</t>
+  </si>
+  <si>
+    <t>//*[@id="grantTCSection"]/label/div/ins</t>
+  </si>
+  <si>
+    <t>Scheme Rules - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Scheme_Rules</t>
+  </si>
+  <si>
+    <t>AMS_Annual_Financial_Statements</t>
+  </si>
+  <si>
+    <t>Annual Financial Statements - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>Annual General Meeting - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Annual_General_Meeting</t>
+  </si>
+  <si>
+    <t>AMS_Digital_benefits</t>
+  </si>
+  <si>
+    <t>Digital benefits - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_My_Plan_details</t>
+  </si>
+  <si>
+    <t>Plan Details - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>//*[@id="tax-certificate"]/div/div/h1</t>
+  </si>
+  <si>
+    <t>AMS_Tax_Certificate</t>
+  </si>
+  <si>
+    <t>//a[@href='#/manage-your-plan/member-certificate']</t>
+  </si>
+  <si>
+    <t>Member_Certificate</t>
+  </si>
+  <si>
+    <t>//a[@href="#/manage-your-plan/tax-certificate"]</t>
+  </si>
+  <si>
+    <t>//*[@id="membership"]/div/div/h1</t>
+  </si>
+  <si>
+    <t>AMS_Member_Certificate</t>
+  </si>
+  <si>
+    <t>AMS_Benefit_Guide</t>
+  </si>
+  <si>
+    <t>Benefit Guide - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Interaction_Timeline</t>
+  </si>
+  <si>
+    <t>Interaction Timeline - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>AMS_Search_for_a_provider</t>
+  </si>
+  <si>
+    <t>Search for a provider - Anglo Medical Scheme</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Postal address')]</t>
+  </si>
+  <si>
+    <t>Malcor_Postal_Address</t>
+  </si>
+  <si>
+    <t>Malcor_Personal_Details</t>
+  </si>
+  <si>
+    <t>Malcor_Contact_Details</t>
+  </si>
+  <si>
+    <t>Malcor_Work_Details</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Personal Details')]</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Contact Details')]</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Work Details')]</t>
+  </si>
+  <si>
+    <t>//*[@href='/portal/individual/your-health-record']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +829,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.6"/>
+      <color rgb="FF297BDE"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -482,6 +931,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -763,18 +1230,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -793,16 +1260,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -810,158 +1277,158 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -970,82 +1437,82 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -1054,96 +1521,96 @@
         <v>5</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -1152,82 +1619,82 @@
         <v>5</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
@@ -1236,82 +1703,82 @@
         <v>5</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
@@ -1320,54 +1787,54 @@
         <v>5</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
@@ -1376,127 +1843,1150 @@
         <v>5</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="3" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>112</v>
+      <c r="C65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1"/>
     <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D65" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>